--- a/src/main/resources/excel/상품_관리_일괄업로드_양식.xlsx
+++ b/src/main/resources/excel/상품_관리_일괄업로드_양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GD\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C0151F-1091-4986-B0F6-3BD2D4F31C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25562CE9-05E0-4EA2-B50F-C9CA86226294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43FDC0DC-E506-47B2-9A80-A457FB523B86}"/>
   </bookViews>
@@ -128,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트드럼통.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>엑셀테스트2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,15 +140,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트드럼통2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>실패경우도테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅇㅇㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트드럼통.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트드럼통2.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +520,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -649,12 +649,12 @@
         <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>777</v>
@@ -669,12 +669,12 @@
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -719,13 +719,13 @@
         <v>222</v>
       </c>
       <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" t="s">
-        <v>29</v>
-      </c>
       <c r="R4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/상품_관리_일괄업로드_양식.xlsx
+++ b/src/main/resources/excel/상품_관리_일괄업로드_양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GD\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25562CE9-05E0-4EA2-B50F-C9CA86226294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A531CBA-CA8A-484F-8B7E-5F3E22506581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43FDC0DC-E506-47B2-9A80-A457FB523B86}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>유류명칭</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>테스트드럼통2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SU001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +524,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -619,7 +623,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -695,7 +699,7 @@
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
